--- a/Running projects/Gul Ahmed Energy Limited/VO/02 Variation for extra VRF work including fans.xlsx
+++ b/Running projects/Gul Ahmed Energy Limited/VO/02 Variation for extra VRF work including fans.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20416"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{182C61CD-3A00-4E77-A10F-FF0D67A63414}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC78A598-387E-4E7F-994C-95EAED017E1D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -14,7 +14,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">HVAC!$A$1:$I$58</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">HVAC!$22:$22</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterate="1"/>
 </workbook>
 </file>
 
@@ -154,13 +154,13 @@
     <t>Providing and installation of electric cables and conduit for the fans.</t>
   </si>
   <si>
-    <t>Over Head profit 28%</t>
-  </si>
-  <si>
     <t>Total Rates</t>
   </si>
   <si>
     <t>11 Jan 2025</t>
+  </si>
+  <si>
+    <t>Over Head profit 10%</t>
   </si>
 </sst>
 </file>
@@ -537,6 +537,33 @@
     <xf numFmtId="165" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -546,9 +573,6 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -560,30 +584,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -709,9 +709,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -749,9 +749,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -784,9 +784,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -819,9 +836,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -997,8 +1031,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A4:P61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="P23" sqref="P23"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="I48" sqref="I48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -1041,7 +1075,7 @@
         <v>5</v>
       </c>
       <c r="I10" s="23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.3">
@@ -1056,21 +1090,21 @@
       <c r="I11" s="20"/>
     </row>
     <row r="12" spans="1:9" ht="21" x14ac:dyDescent="0.3">
-      <c r="A12" s="53" t="s">
+      <c r="A12" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="53"/>
-      <c r="C12" s="53"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="53"/>
-      <c r="F12" s="53"/>
-      <c r="G12" s="53"/>
-      <c r="H12" s="53"/>
-      <c r="I12" s="53"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="45"/>
+      <c r="I12" s="45"/>
     </row>
     <row r="13" spans="1:9" ht="0.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="54"/>
-      <c r="B13" s="54"/>
+      <c r="A13" s="46"/>
+      <c r="B13" s="46"/>
       <c r="I13" s="1"/>
     </row>
     <row r="14" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -1090,15 +1124,15 @@
       <c r="I15" s="11"/>
     </row>
     <row r="16" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="55"/>
-      <c r="B16" s="55"/>
-      <c r="C16" s="55"/>
-      <c r="D16" s="55"/>
-      <c r="E16" s="55"/>
-      <c r="F16" s="55"/>
-      <c r="G16" s="55"/>
-      <c r="H16" s="55"/>
-      <c r="I16" s="55"/>
+      <c r="A16" s="47"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="47"/>
     </row>
     <row r="17" spans="1:11" ht="6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7"/>
@@ -1112,28 +1146,28 @@
       <c r="I17" s="7"/>
     </row>
     <row r="18" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="56" t="s">
+      <c r="A18" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="56"/>
-      <c r="C18" s="56"/>
-      <c r="D18" s="56"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="56"/>
+      <c r="B18" s="48"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="48"/>
+      <c r="H18" s="48"/>
+      <c r="I18" s="48"/>
     </row>
     <row r="19" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="56"/>
-      <c r="B19" s="56"/>
-      <c r="C19" s="56"/>
-      <c r="D19" s="56"/>
-      <c r="E19" s="56"/>
-      <c r="F19" s="56"/>
-      <c r="G19" s="56"/>
-      <c r="H19" s="56"/>
-      <c r="I19" s="56"/>
+      <c r="A19" s="48"/>
+      <c r="B19" s="48"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="48"/>
+      <c r="G19" s="48"/>
+      <c r="H19" s="48"/>
+      <c r="I19" s="48"/>
     </row>
     <row r="20" spans="1:11" ht="1.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="4"/>
@@ -1171,10 +1205,10 @@
         <v>16</v>
       </c>
       <c r="E22" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="F22" s="34" t="s">
         <v>44</v>
-      </c>
-      <c r="F22" s="34" t="s">
-        <v>45</v>
       </c>
       <c r="G22" s="34" t="s">
         <v>2</v>
@@ -1200,12 +1234,11 @@
         <v>15000</v>
       </c>
       <c r="E23" s="42">
-        <f>SUM(C23+D23)*28%</f>
-        <v>4200</v>
+        <v>0</v>
       </c>
       <c r="F23" s="42">
         <f>E23+D23+C23</f>
-        <v>19200</v>
+        <v>15000</v>
       </c>
       <c r="G23" s="29" t="s">
         <v>7</v>
@@ -1215,41 +1248,40 @@
       </c>
       <c r="I23" s="31">
         <f>H23*F23</f>
-        <v>19200</v>
+        <v>15000</v>
       </c>
       <c r="J23" s="12"/>
       <c r="K23" s="22"/>
     </row>
     <row r="24" spans="1:11" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="57">
+      <c r="A24" s="50">
         <v>2</v>
       </c>
       <c r="B24" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="47">
+      <c r="C24" s="49">
         <v>0</v>
       </c>
-      <c r="D24" s="47">
+      <c r="D24" s="49">
         <v>7000</v>
       </c>
-      <c r="E24" s="44">
-        <f>SUM(C24+D24)*28%</f>
-        <v>1960.0000000000002</v>
-      </c>
-      <c r="F24" s="44">
+      <c r="E24" s="53">
+        <v>0</v>
+      </c>
+      <c r="F24" s="53">
         <f>E24+D24+C24</f>
-        <v>8960</v>
-      </c>
-      <c r="G24" s="47" t="s">
+        <v>7000</v>
+      </c>
+      <c r="G24" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="H24" s="47">
+      <c r="H24" s="49">
         <v>20</v>
       </c>
-      <c r="I24" s="47">
+      <c r="I24" s="49">
         <f>H24*F24</f>
-        <v>179200</v>
+        <v>140000</v>
       </c>
       <c r="J24" s="12"/>
       <c r="K24" s="22" t="s">
@@ -1257,107 +1289,107 @@
       </c>
     </row>
     <row r="25" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="58"/>
+      <c r="A25" s="51"/>
       <c r="B25" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="47"/>
-      <c r="D25" s="47"/>
-      <c r="E25" s="45"/>
-      <c r="F25" s="45"/>
-      <c r="G25" s="47"/>
-      <c r="H25" s="47"/>
-      <c r="I25" s="47"/>
+      <c r="C25" s="49"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="54"/>
+      <c r="F25" s="54"/>
+      <c r="G25" s="49"/>
+      <c r="H25" s="49"/>
+      <c r="I25" s="49"/>
       <c r="J25" s="12"/>
       <c r="K25" s="22"/>
     </row>
     <row r="26" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="58"/>
+      <c r="A26" s="51"/>
       <c r="B26" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="47"/>
-      <c r="D26" s="47"/>
-      <c r="E26" s="45"/>
-      <c r="F26" s="45"/>
-      <c r="G26" s="47"/>
-      <c r="H26" s="47"/>
-      <c r="I26" s="47"/>
+      <c r="C26" s="49"/>
+      <c r="D26" s="49"/>
+      <c r="E26" s="54"/>
+      <c r="F26" s="54"/>
+      <c r="G26" s="49"/>
+      <c r="H26" s="49"/>
+      <c r="I26" s="49"/>
       <c r="J26" s="12"/>
       <c r="K26" s="22"/>
     </row>
     <row r="27" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="58"/>
+      <c r="A27" s="51"/>
       <c r="B27" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="47"/>
-      <c r="D27" s="47"/>
-      <c r="E27" s="45"/>
-      <c r="F27" s="45"/>
-      <c r="G27" s="47"/>
-      <c r="H27" s="47"/>
-      <c r="I27" s="47"/>
+      <c r="C27" s="49"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="54"/>
+      <c r="F27" s="54"/>
+      <c r="G27" s="49"/>
+      <c r="H27" s="49"/>
+      <c r="I27" s="49"/>
       <c r="J27" s="12"/>
       <c r="K27" s="22"/>
     </row>
     <row r="28" spans="1:11" ht="30" x14ac:dyDescent="0.3">
-      <c r="A28" s="58"/>
+      <c r="A28" s="51"/>
       <c r="B28" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="47"/>
-      <c r="D28" s="47"/>
-      <c r="E28" s="45"/>
-      <c r="F28" s="45"/>
-      <c r="G28" s="47"/>
-      <c r="H28" s="47"/>
-      <c r="I28" s="47"/>
+      <c r="C28" s="49"/>
+      <c r="D28" s="49"/>
+      <c r="E28" s="54"/>
+      <c r="F28" s="54"/>
+      <c r="G28" s="49"/>
+      <c r="H28" s="49"/>
+      <c r="I28" s="49"/>
       <c r="J28" s="12"/>
       <c r="K28" s="22"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" s="58"/>
+      <c r="A29" s="51"/>
       <c r="B29" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="C29" s="47"/>
-      <c r="D29" s="47"/>
-      <c r="E29" s="45"/>
-      <c r="F29" s="45"/>
-      <c r="G29" s="47"/>
-      <c r="H29" s="47"/>
-      <c r="I29" s="47"/>
+      <c r="C29" s="49"/>
+      <c r="D29" s="49"/>
+      <c r="E29" s="54"/>
+      <c r="F29" s="54"/>
+      <c r="G29" s="49"/>
+      <c r="H29" s="49"/>
+      <c r="I29" s="49"/>
       <c r="J29" s="12"/>
       <c r="K29" s="22"/>
     </row>
     <row r="30" spans="1:11" ht="30" x14ac:dyDescent="0.3">
-      <c r="A30" s="58"/>
+      <c r="A30" s="51"/>
       <c r="B30" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="C30" s="47"/>
-      <c r="D30" s="47"/>
-      <c r="E30" s="45"/>
-      <c r="F30" s="45"/>
-      <c r="G30" s="47"/>
-      <c r="H30" s="47"/>
-      <c r="I30" s="47"/>
+      <c r="C30" s="49"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="54"/>
+      <c r="F30" s="54"/>
+      <c r="G30" s="49"/>
+      <c r="H30" s="49"/>
+      <c r="I30" s="49"/>
       <c r="J30" s="12"/>
       <c r="K30" s="22"/>
     </row>
     <row r="31" spans="1:11" ht="30" x14ac:dyDescent="0.3">
-      <c r="A31" s="59"/>
+      <c r="A31" s="52"/>
       <c r="B31" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="C31" s="47"/>
-      <c r="D31" s="47"/>
-      <c r="E31" s="46"/>
-      <c r="F31" s="46"/>
-      <c r="G31" s="47"/>
-      <c r="H31" s="47"/>
-      <c r="I31" s="47"/>
+      <c r="C31" s="49"/>
+      <c r="D31" s="49"/>
+      <c r="E31" s="55"/>
+      <c r="F31" s="55"/>
+      <c r="G31" s="49"/>
+      <c r="H31" s="49"/>
+      <c r="I31" s="49"/>
       <c r="J31" s="12"/>
       <c r="K31" s="22"/>
     </row>
@@ -1372,15 +1404,14 @@
         <v>0</v>
       </c>
       <c r="D32" s="31">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="E32" s="42">
-        <f>SUM(C32+D32)*28%</f>
-        <v>1400.0000000000002</v>
+        <v>0</v>
       </c>
       <c r="F32" s="42">
         <f>E32+D32+C32</f>
-        <v>6400</v>
+        <v>0</v>
       </c>
       <c r="G32" s="36" t="s">
         <v>11</v>
@@ -1390,7 +1421,7 @@
       </c>
       <c r="I32" s="31">
         <f>H32*F32</f>
-        <v>204800</v>
+        <v>0</v>
       </c>
       <c r="J32" s="12"/>
       <c r="K32" s="22"/>
@@ -1424,12 +1455,12 @@
         <v>2000</v>
       </c>
       <c r="E34" s="42">
-        <f t="shared" ref="E34:E40" si="0">SUM(C34+D34)*28%</f>
-        <v>3360.0000000000005</v>
+        <f t="shared" ref="E34:E47" si="0">SUM(C34+D34)*10%</f>
+        <v>1200</v>
       </c>
       <c r="F34" s="42">
         <f t="shared" ref="F34:F40" si="1">E34+D34+C34</f>
-        <v>15360</v>
+        <v>13200</v>
       </c>
       <c r="G34" s="29" t="s">
         <v>11</v>
@@ -1439,7 +1470,7 @@
       </c>
       <c r="I34" s="31">
         <f t="shared" ref="I34:I47" si="2">H34*F34</f>
-        <v>76800</v>
+        <v>66000</v>
       </c>
       <c r="J34" s="12"/>
       <c r="K34" s="22"/>
@@ -1457,11 +1488,11 @@
       </c>
       <c r="E35" s="42">
         <f t="shared" si="0"/>
-        <v>3718.4000000000005</v>
+        <v>1328</v>
       </c>
       <c r="F35" s="42">
         <f t="shared" si="1"/>
-        <v>16998.400000000001</v>
+        <v>14608</v>
       </c>
       <c r="G35" s="29" t="s">
         <v>11</v>
@@ -1471,7 +1502,7 @@
       </c>
       <c r="I35" s="31">
         <f t="shared" si="2"/>
-        <v>424960.00000000006</v>
+        <v>365200</v>
       </c>
       <c r="J35" s="12"/>
       <c r="K35" s="22"/>
@@ -1489,11 +1520,11 @@
       </c>
       <c r="E36" s="42">
         <f t="shared" si="0"/>
-        <v>3885.0000000000005</v>
+        <v>1387.5</v>
       </c>
       <c r="F36" s="42">
         <f t="shared" si="1"/>
-        <v>17760</v>
+        <v>15262.5</v>
       </c>
       <c r="G36" s="29" t="s">
         <v>11</v>
@@ -1503,7 +1534,7 @@
       </c>
       <c r="I36" s="31">
         <f t="shared" si="2"/>
-        <v>88800</v>
+        <v>76312.5</v>
       </c>
       <c r="J36" s="12"/>
       <c r="K36" s="22"/>
@@ -1521,11 +1552,11 @@
       </c>
       <c r="E37" s="42">
         <f t="shared" si="0"/>
-        <v>4235</v>
+        <v>1512.5</v>
       </c>
       <c r="F37" s="42">
         <f t="shared" si="1"/>
-        <v>19360</v>
+        <v>16637.5</v>
       </c>
       <c r="G37" s="29" t="s">
         <v>11</v>
@@ -1535,7 +1566,7 @@
       </c>
       <c r="I37" s="31">
         <f t="shared" si="2"/>
-        <v>425920</v>
+        <v>366025</v>
       </c>
       <c r="J37" s="12"/>
       <c r="K37" s="22"/>
@@ -1553,11 +1584,11 @@
       </c>
       <c r="E38" s="42">
         <f t="shared" si="0"/>
-        <v>7735.0000000000009</v>
+        <v>2762.5</v>
       </c>
       <c r="F38" s="42">
         <f t="shared" si="1"/>
-        <v>35360</v>
+        <v>30387.5</v>
       </c>
       <c r="G38" s="29" t="s">
         <v>14</v>
@@ -1567,7 +1598,7 @@
       </c>
       <c r="I38" s="31">
         <f t="shared" si="2"/>
-        <v>106080</v>
+        <v>91162.5</v>
       </c>
       <c r="J38" s="12"/>
       <c r="K38" s="22"/>
@@ -1583,15 +1614,15 @@
         <v>601800</v>
       </c>
       <c r="D39" s="32">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="E39" s="42">
         <f t="shared" si="0"/>
-        <v>176904.00000000003</v>
+        <v>62680</v>
       </c>
       <c r="F39" s="42">
         <f t="shared" si="1"/>
-        <v>808704</v>
+        <v>689480</v>
       </c>
       <c r="G39" s="29" t="s">
         <v>11</v>
@@ -1601,7 +1632,7 @@
       </c>
       <c r="I39" s="31">
         <f t="shared" si="2"/>
-        <v>1617408</v>
+        <v>1378960</v>
       </c>
       <c r="J39" s="12"/>
       <c r="K39" s="22"/>
@@ -1618,15 +1649,15 @@
         <v>395300</v>
       </c>
       <c r="D40" s="31">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="E40" s="42">
         <f t="shared" si="0"/>
-        <v>120484.00000000001</v>
+        <v>42030</v>
       </c>
       <c r="F40" s="42">
         <f t="shared" si="1"/>
-        <v>550784</v>
+        <v>462330</v>
       </c>
       <c r="G40" s="29" t="s">
         <v>11</v>
@@ -1636,7 +1667,7 @@
       </c>
       <c r="I40" s="31">
         <f t="shared" si="2"/>
-        <v>550784</v>
+        <v>462330</v>
       </c>
       <c r="J40" s="12"/>
       <c r="K40" s="22"/>
@@ -1655,12 +1686,12 @@
         <v>30000</v>
       </c>
       <c r="E41" s="42">
-        <f>SUM(C41+D41)*28%</f>
-        <v>22400.000000000004</v>
+        <f t="shared" si="0"/>
+        <v>8000</v>
       </c>
       <c r="F41" s="42">
         <f>E41+D41+C41</f>
-        <v>102400</v>
+        <v>88000</v>
       </c>
       <c r="G41" s="29" t="s">
         <v>7</v>
@@ -1670,7 +1701,7 @@
       </c>
       <c r="I41" s="31">
         <f t="shared" si="2"/>
-        <v>102400</v>
+        <v>88000</v>
       </c>
       <c r="J41" s="12"/>
       <c r="K41" s="22"/>
@@ -1689,12 +1720,12 @@
         <v>100</v>
       </c>
       <c r="E42" s="42">
-        <f>SUM(C42+D42)*28%</f>
-        <v>168.00000000000003</v>
+        <f t="shared" si="0"/>
+        <v>60</v>
       </c>
       <c r="F42" s="42">
         <f>E42+D42+C42</f>
-        <v>768</v>
+        <v>660</v>
       </c>
       <c r="G42" s="29" t="s">
         <v>32</v>
@@ -1704,7 +1735,7 @@
       </c>
       <c r="I42" s="31">
         <f t="shared" si="2"/>
-        <v>192000</v>
+        <v>165000</v>
       </c>
       <c r="J42" s="12"/>
       <c r="K42" s="22"/>
@@ -1720,15 +1751,15 @@
         <v>108011</v>
       </c>
       <c r="D43" s="31">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="E43" s="42">
-        <f>SUM(C43+D43)*28%</f>
-        <v>33043.08</v>
+        <f t="shared" si="0"/>
+        <v>11301.1</v>
       </c>
       <c r="F43" s="42">
         <f>E43+D43+C43</f>
-        <v>151054.08000000002</v>
+        <v>124312.1</v>
       </c>
       <c r="G43" s="29" t="s">
         <v>7</v>
@@ -1738,7 +1769,7 @@
       </c>
       <c r="I43" s="31">
         <f t="shared" si="2"/>
-        <v>151054.08000000002</v>
+        <v>124312.1</v>
       </c>
       <c r="J43" s="12"/>
       <c r="K43" s="22"/>
@@ -1757,12 +1788,12 @@
         <v>20000</v>
       </c>
       <c r="E44" s="42">
-        <f>SUM(C44+D44)*28%</f>
-        <v>21624.400000000001</v>
+        <f t="shared" si="0"/>
+        <v>7723</v>
       </c>
       <c r="F44" s="42">
         <f>E44+D44+C44</f>
-        <v>98854.399999999994</v>
+        <v>84953</v>
       </c>
       <c r="G44" s="29" t="s">
         <v>41</v>
@@ -1772,7 +1803,7 @@
       </c>
       <c r="I44" s="31">
         <f t="shared" si="2"/>
-        <v>197708.79999999999</v>
+        <v>169906</v>
       </c>
       <c r="J44" s="12"/>
       <c r="K44" s="22"/>
@@ -1790,12 +1821,12 @@
         <v>8000</v>
       </c>
       <c r="E45" s="42">
-        <f>SUM(C45+D45)*28%</f>
-        <v>2240</v>
+        <f t="shared" si="0"/>
+        <v>800</v>
       </c>
       <c r="F45" s="42">
         <f>E45+D45+C45</f>
-        <v>10240</v>
+        <v>8800</v>
       </c>
       <c r="G45" s="29" t="s">
         <v>2</v>
@@ -1805,7 +1836,7 @@
       </c>
       <c r="I45" s="31">
         <f t="shared" si="2"/>
-        <v>51200</v>
+        <v>44000</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="30" x14ac:dyDescent="0.3">
@@ -1822,12 +1853,12 @@
         <v>5000</v>
       </c>
       <c r="E46" s="42">
-        <f t="shared" ref="E46:E47" si="3">SUM(C46+D46)*28%</f>
-        <v>1400.0000000000002</v>
+        <f t="shared" si="0"/>
+        <v>500</v>
       </c>
       <c r="F46" s="42">
-        <f t="shared" ref="F46:F47" si="4">E46+D46+C46</f>
-        <v>6400</v>
+        <f t="shared" ref="F46:F47" si="3">E46+D46+C46</f>
+        <v>5500</v>
       </c>
       <c r="G46" s="29" t="s">
         <v>11</v>
@@ -1837,7 +1868,7 @@
       </c>
       <c r="I46" s="31">
         <f t="shared" si="2"/>
-        <v>25600</v>
+        <v>22000</v>
       </c>
       <c r="K46" s="22"/>
     </row>
@@ -1856,12 +1887,12 @@
         <v>5000</v>
       </c>
       <c r="E47" s="42">
+        <f t="shared" si="0"/>
+        <v>8719.5</v>
+      </c>
+      <c r="F47" s="42">
         <f t="shared" si="3"/>
-        <v>24414.600000000002</v>
-      </c>
-      <c r="F47" s="42">
-        <f t="shared" si="4"/>
-        <v>111609.60000000001</v>
+        <v>95914.5</v>
       </c>
       <c r="G47" s="29" t="s">
         <v>14</v>
@@ -1871,23 +1902,23 @@
       </c>
       <c r="I47" s="31">
         <f t="shared" si="2"/>
-        <v>111609.60000000001</v>
+        <v>95914.5</v>
       </c>
     </row>
     <row r="48" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="48" t="s">
+      <c r="A48" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="B48" s="48"/>
-      <c r="C48" s="48"/>
-      <c r="D48" s="48"/>
-      <c r="E48" s="48"/>
-      <c r="F48" s="48"/>
-      <c r="G48" s="48"/>
-      <c r="H48" s="49"/>
+      <c r="B48" s="56"/>
+      <c r="C48" s="56"/>
+      <c r="D48" s="56"/>
+      <c r="E48" s="56"/>
+      <c r="F48" s="56"/>
+      <c r="G48" s="56"/>
+      <c r="H48" s="57"/>
       <c r="I48" s="43">
         <f>SUM(I23:I47)</f>
-        <v>4525524.4799999995</v>
+        <v>3670122.6</v>
       </c>
       <c r="J48" s="12"/>
     </row>
@@ -1904,53 +1935,53 @@
       <c r="J49" s="12"/>
     </row>
     <row r="50" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="50" t="s">
+      <c r="A50" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="B50" s="51"/>
-      <c r="C50" s="51"/>
-      <c r="D50" s="51"/>
-      <c r="E50" s="51"/>
-      <c r="F50" s="51"/>
-      <c r="G50" s="51"/>
-      <c r="H50" s="51"/>
-      <c r="I50" s="51"/>
+      <c r="B50" s="59"/>
+      <c r="C50" s="59"/>
+      <c r="D50" s="59"/>
+      <c r="E50" s="59"/>
+      <c r="F50" s="59"/>
+      <c r="G50" s="59"/>
+      <c r="H50" s="59"/>
+      <c r="I50" s="59"/>
       <c r="K50" s="13"/>
     </row>
     <row r="51" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="51"/>
-      <c r="B51" s="51"/>
-      <c r="C51" s="51"/>
-      <c r="D51" s="51"/>
-      <c r="E51" s="51"/>
-      <c r="F51" s="51"/>
-      <c r="G51" s="51"/>
-      <c r="H51" s="51"/>
-      <c r="I51" s="51"/>
+      <c r="A51" s="59"/>
+      <c r="B51" s="59"/>
+      <c r="C51" s="59"/>
+      <c r="D51" s="59"/>
+      <c r="E51" s="59"/>
+      <c r="F51" s="59"/>
+      <c r="G51" s="59"/>
+      <c r="H51" s="59"/>
+      <c r="I51" s="59"/>
       <c r="K51" s="13"/>
     </row>
     <row r="52" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="51"/>
-      <c r="B52" s="51"/>
-      <c r="C52" s="51"/>
-      <c r="D52" s="51"/>
-      <c r="E52" s="51"/>
-      <c r="F52" s="51"/>
-      <c r="G52" s="51"/>
-      <c r="H52" s="51"/>
-      <c r="I52" s="51"/>
+      <c r="A52" s="59"/>
+      <c r="B52" s="59"/>
+      <c r="C52" s="59"/>
+      <c r="D52" s="59"/>
+      <c r="E52" s="59"/>
+      <c r="F52" s="59"/>
+      <c r="G52" s="59"/>
+      <c r="H52" s="59"/>
+      <c r="I52" s="59"/>
       <c r="K52" s="13"/>
     </row>
     <row r="53" spans="1:16" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="51"/>
-      <c r="B53" s="51"/>
-      <c r="C53" s="51"/>
-      <c r="D53" s="51"/>
-      <c r="E53" s="51"/>
-      <c r="F53" s="51"/>
-      <c r="G53" s="51"/>
-      <c r="H53" s="51"/>
-      <c r="I53" s="51"/>
+      <c r="A53" s="59"/>
+      <c r="B53" s="59"/>
+      <c r="C53" s="59"/>
+      <c r="D53" s="59"/>
+      <c r="E53" s="59"/>
+      <c r="F53" s="59"/>
+      <c r="G53" s="59"/>
+      <c r="H53" s="59"/>
+      <c r="I53" s="59"/>
       <c r="K53" s="13"/>
     </row>
     <row r="54" spans="1:16" ht="9" customHeight="1" x14ac:dyDescent="0.3">
@@ -1966,10 +1997,10 @@
       <c r="N54" s="2"/>
     </row>
     <row r="55" spans="1:16" ht="21" x14ac:dyDescent="0.35">
-      <c r="A55" s="52" t="s">
+      <c r="A55" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="B55" s="52"/>
+      <c r="B55" s="44"/>
       <c r="I55" s="15"/>
       <c r="J55" s="14"/>
       <c r="K55" s="12"/>
